--- a/data/variables.xlsx
+++ b/data/variables.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oriol\OneDrive\Desktop\Football SA\Sports-Analytics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiU\Semester 2\Period 2\Sport Analytics\Project\Sports-Analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EF3B1B-832B-4FC2-B11D-FC6125C18809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{710DF86F-A76B-4A7B-B8F0-1D19A3F5106B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,12 +104,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Numeric. Number representing a unique player.</t>
-  </si>
-  <si>
-    <t>Boolean. States whether the player use the strong foot or not.</t>
-  </si>
-  <si>
     <t>Numeric. Overall rating from FIFA ratings.</t>
   </si>
   <si>
@@ -120,9 +113,6 @@
     <t>Numeric. Shot finishing from FIFA ratings.</t>
   </si>
   <si>
-    <t>Numeric. Overall rating for goalkeepers from FIFA ratings.</t>
-  </si>
-  <si>
     <t>Numeric. Goalkeeper reflexes from FIFA ratings.</t>
   </si>
   <si>
@@ -135,52 +125,61 @@
     <t>Numeric. Goalkeeper positioning from FIFA ratings.</t>
   </si>
   <si>
-    <t>Boolean. States if the shot is the first of the game for the given player.</t>
-  </si>
-  <si>
-    <t>Boolean. States if the player shooting has opponents close enough to disturb the shot.</t>
-  </si>
-  <si>
-    <t>Boolean. States whether the player shooting is playing home or away.</t>
-  </si>
-  <si>
-    <t>Numeric. distance to center of the goal from shot taker.</t>
-  </si>
-  <si>
-    <t>Numeric. angle of the goal from the from shot taker (in degrees).</t>
-  </si>
-  <si>
-    <t>Numeric. number of players (teammates &amp; opponents NOT including GK) between goal and shot taker (inside the triangle of the goalposts and the shot taker).</t>
-  </si>
-  <si>
     <t>Numeric. Distance from closest opponent to shooter.</t>
   </si>
   <si>
-    <t>Boolean. Can the goalkeeper save the shot by being inside the triangle.</t>
-  </si>
-  <si>
-    <t>Boolean. States whether the goalkeeper is between the ball and the goal.</t>
-  </si>
-  <si>
-    <t>Numeric. goalkeeper's positioning, best if gk is standing on the line that halves the angle of the shot (value between 0 (angle is the same), to 1 (angle is halved).</t>
-  </si>
-  <si>
-    <t>Numeric. same as gk_pos, but it is less strict with shots with a tight angle.</t>
-  </si>
-  <si>
-    <t>Numeric. distance between goalkeeper and shot taker.</t>
-  </si>
-  <si>
-    <t>Numeric. distance between goalkeeper and the center of the goal.</t>
-  </si>
-  <si>
-    <t>Binary. 1 the shot is goal, 0 the shot is not goal.</t>
+    <t>Numeric. Unique number representing a shot.</t>
+  </si>
+  <si>
+    <t>Boolean. States whether the player used the strong foot or not.</t>
+  </si>
+  <si>
+    <t>Boolean. States if the shot was taken first time.</t>
+  </si>
+  <si>
+    <t>Boolean. States if the shooter was under pressure or not.</t>
+  </si>
+  <si>
+    <t>Boolean. States whether the shooter is playing home or away.</t>
+  </si>
+  <si>
+    <t>Numeric. Distance to center of the goal from shooter.</t>
+  </si>
+  <si>
+    <t>Numeric. Number of players (teammates &amp; opponents NOT including GK) between goal and shooter (inside the triangle of the goalposts and the shooter).</t>
+  </si>
+  <si>
+    <t>Boolean. States whether the goalkeeper can save the shot by being inside the triangle.</t>
+  </si>
+  <si>
+    <t>Boolean. States whether the closest opponent can save the shot by being inside the triangle.</t>
+  </si>
+  <si>
+    <t>Numeric. Goalkeeper's positioning, best if gk is standing on the line that halves the angle of the shot (value between 0 (angle is the same), to 1 (angle is halved).</t>
+  </si>
+  <si>
+    <t>Numeric. Same as gk_pos, but it is less strict with shots with a tight angle.</t>
+  </si>
+  <si>
+    <t>Numeric. Distance between goalkeeper and shooter.</t>
+  </si>
+  <si>
+    <t>Numeric. Distance between goalkeeper and the center of the goal.</t>
+  </si>
+  <si>
+    <t>Binary. 1 if the shot is goal, 0 if the shot is not goal.</t>
+  </si>
+  <si>
+    <t>Numeric. Overall rating for goalkeeper from FIFA ratings.</t>
+  </si>
+  <si>
+    <t>Numeric. Angle of the shot from the shooter (in degrees).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65E8725-23D5-4187-B58D-952F9033A22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -559,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -599,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -663,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -679,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +726,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +734,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
